--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AC1CD9-6407-42C8-BDFF-2DABAE16BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA081380-77A5-9A47-BD6E-6500A131AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
   <si>
     <t>Product Name:</t>
   </si>
@@ -496,6 +501,21 @@
   </si>
   <si>
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Rachael Rocha</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Grumpy Bear</t>
   </si>
 </sst>
 </file>
@@ -506,7 +526,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -656,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,19 +1032,19 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,20 +3120,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1969560</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77260</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>8340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1905480</xdr:colOff>
+      <xdr:colOff>3480280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>82140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3151,7 +3174,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -3192,7 +3215,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -3233,7 +3256,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3274,7 +3297,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3315,7 +3338,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3356,7 +3379,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3682,31 +3705,33 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="54.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="37" style="4" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" style="4" customWidth="1"/>
-    <col min="12" max="1024" width="11.5703125" style="4"/>
+    <col min="11" max="11" width="62.33203125" style="4" customWidth="1"/>
+    <col min="12" max="1024" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="45" t="s">
+        <v>154</v>
+      </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -3718,11 +3743,13 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="46" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -3732,7 +3759,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3744,7 +3771,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3762,21 +3789,27 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="48">
+        <v>1001828709</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3788,7 +3821,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3800,7 +3833,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3812,7 +3845,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3824,7 +3857,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3836,7 +3869,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3889,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3877,17 +3910,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3901,13 +3934,13 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>2</v>
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
@@ -3925,13 +3958,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>3</v>
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -3949,13 +3982,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>4</v>
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -3969,13 +4002,13 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>5</v>
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -3989,7 +4022,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4001,7 +4034,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4013,7 +4046,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4027,7 +4060,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4041,7 +4074,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4057,7 +4090,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4106,8 +4139,12 @@
       <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
       </c>
@@ -4121,7 +4158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.2">
+    <row r="25" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4135,8 +4172,12 @@
       <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
       </c>
@@ -4150,7 +4191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2">
+    <row r="26" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4164,8 +4205,12 @@
       <c r="E26" s="16">
         <v>8</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -4177,7 +4222,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="24.2">
+    <row r="27" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4191,8 +4236,12 @@
       <c r="E27" s="16">
         <v>8</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4253,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="24.2">
+    <row r="28" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -4218,8 +4267,12 @@
       <c r="E28" s="16">
         <v>13</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -4231,7 +4284,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
@@ -4245,7 +4298,9 @@
       <c r="E29" s="21">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4260,7 +4315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -4274,7 +4329,9 @@
       <c r="E30" s="21">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4289,7 +4346,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
@@ -4303,7 +4360,9 @@
       <c r="E31" s="21">
         <v>3</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4316,7 +4375,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4389,9 @@
       <c r="E32" s="21">
         <v>5</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
         <v>31</v>
@@ -4343,7 +4404,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="24">
+    <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4418,9 @@
       <c r="E33" s="21">
         <v>5</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17">
+        <v>2</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -4372,7 +4435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
@@ -4386,7 +4449,9 @@
       <c r="E34" s="21">
         <v>8</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>2</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18" t="s">
         <v>31</v>
@@ -4401,7 +4466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
+    <row r="35" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
@@ -4430,7 +4495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="24.2">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -4488,7 +4553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1">
+    <row r="38" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
@@ -4517,7 +4582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1">
+    <row r="39" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -4546,7 +4611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1">
+    <row r="40" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
@@ -4575,7 +4640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4669,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
@@ -4631,7 +4696,7 @@
       </c>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
         <v>98</v>
       </c>
@@ -4660,7 +4725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="22" customFormat="1">
+    <row r="44" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="s">
         <v>102</v>
       </c>
@@ -4689,7 +4754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="22" customFormat="1">
+    <row r="45" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
         <v>106</v>
       </c>
@@ -4712,7 +4777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="22" customFormat="1">
+    <row r="46" spans="1:11" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
         <v>108</v>
       </c>
@@ -4741,7 +4806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="22" customFormat="1">
+    <row r="47" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4754,7 +4819,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" s="22" customFormat="1" ht="15">
+    <row r="48" spans="1:11" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4769,7 +4834,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4782,7 +4847,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" ht="24.2">
+    <row r="50" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>113</v>
       </c>
@@ -4807,7 +4872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="35.450000000000003">
+    <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>117</v>
       </c>
@@ -4832,7 +4897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +4922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.2">
+    <row r="53" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>125</v>
       </c>
@@ -4880,7 +4945,7 @@
       </c>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="24.2">
+    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -4905,7 +4970,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4918,7 +4983,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4931,7 +4996,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4944,7 +5009,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4957,7 +5022,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4970,7 +5035,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4983,7 +5048,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4996,7 +5061,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5009,7 +5074,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5022,7 +5087,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5035,7 +5100,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5048,7 +5113,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5061,7 +5126,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5074,7 +5139,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5087,7 +5152,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5100,7 +5165,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5113,7 +5178,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5126,7 +5191,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5139,7 +5204,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5152,7 +5217,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5165,7 +5230,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5178,7 +5243,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5191,7 +5256,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5204,7 +5269,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5217,7 +5282,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5230,7 +5295,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5243,7 +5308,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5256,7 +5321,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5269,7 +5334,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5282,7 +5347,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5295,7 +5360,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5308,7 +5373,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5321,7 +5386,7 @@
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5334,7 +5399,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5347,7 +5412,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5360,7 +5425,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5373,7 +5438,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5386,7 +5451,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5399,7 +5464,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5412,7 +5477,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5425,7 +5490,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5438,7 +5503,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5451,7 +5516,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5464,7 +5529,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5477,7 +5542,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5490,7 +5555,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5586,16 +5651,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5676,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -5627,7 +5692,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -5642,7 +5707,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -5656,7 +5721,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -5666,7 +5731,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -5680,7 +5745,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -5695,12 +5760,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -5713,12 +5778,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -5731,12 +5796,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -5749,12 +5814,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -5767,12 +5832,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -5785,12 +5850,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -5803,12 +5868,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -5821,7 +5886,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5831,7 +5896,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -5851,7 +5916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -5863,7 +5928,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5873,7 +5938,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -5883,7 +5948,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -5893,7 +5958,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5903,7 +5968,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -5913,7 +5978,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -5923,7 +5988,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -5933,7 +5998,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -5943,7 +6008,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -5953,7 +6018,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -5963,7 +6028,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -5973,7 +6038,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -5983,7 +6048,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -5993,7 +6058,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -6003,7 +6068,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -6013,7 +6078,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -6023,7 +6088,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -6033,7 +6098,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -6043,7 +6108,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6053,7 +6118,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -6063,7 +6128,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -6073,7 +6138,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -6083,7 +6148,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -6093,7 +6158,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -6103,7 +6168,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -6113,7 +6178,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -6123,7 +6188,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -6133,7 +6198,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -6143,7 +6208,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -6153,7 +6218,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -6163,7 +6228,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -6173,7 +6238,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -6183,7 +6248,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -6193,7 +6258,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -6203,7 +6268,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -6213,7 +6278,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -6223,7 +6288,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -6233,7 +6298,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -6243,7 +6308,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -6253,7 +6318,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -6263,7 +6328,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -6273,7 +6338,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -6283,7 +6348,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -6293,7 +6358,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -6303,7 +6368,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -6313,7 +6378,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -6323,7 +6388,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -6333,7 +6398,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -6343,7 +6408,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -6353,7 +6418,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -6363,7 +6428,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -6373,7 +6438,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -6383,7 +6448,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -6393,7 +6458,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -6403,7 +6468,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -6413,7 +6478,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -6423,7 +6488,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -6433,7 +6498,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -6443,7 +6508,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -6453,7 +6518,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -6463,7 +6528,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -6473,7 +6538,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -6483,7 +6548,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -6493,7 +6558,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -6503,7 +6568,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -6513,7 +6578,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6523,7 +6588,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -6533,7 +6598,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -6543,7 +6608,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -6553,7 +6618,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -6563,7 +6628,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -6573,7 +6638,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -6583,7 +6648,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -6593,7 +6658,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -6603,7 +6668,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -6613,7 +6678,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -6623,7 +6688,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -6633,7 +6698,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -6643,7 +6708,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -6653,7 +6718,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -6663,7 +6728,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -6673,7 +6738,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -6683,7 +6748,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -6750,20 +6815,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -6780,7 +6845,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -6797,7 +6862,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -6812,7 +6877,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -6826,7 +6891,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -6836,7 +6901,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -6850,7 +6915,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -6865,12 +6930,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -6883,12 +6948,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -6901,12 +6966,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -6919,12 +6984,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -6937,12 +7002,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -6955,12 +7020,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -6973,12 +7038,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -6991,7 +7056,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7001,7 +7066,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -7021,7 +7086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -7033,7 +7098,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -7043,7 +7108,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -7053,7 +7118,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -7063,7 +7128,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -7073,7 +7138,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -7083,7 +7148,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -7093,7 +7158,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -7103,7 +7168,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -7113,7 +7178,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -7123,7 +7188,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -7133,7 +7198,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -7143,7 +7208,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -7153,7 +7218,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -7163,7 +7228,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -7173,7 +7238,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -7183,7 +7248,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -7193,7 +7258,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -7203,7 +7268,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -7213,7 +7278,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7223,7 +7288,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -7233,7 +7298,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -7243,7 +7308,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -7253,7 +7318,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -7263,7 +7328,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -7273,7 +7338,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -7283,7 +7348,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -7293,7 +7358,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -7303,7 +7368,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -7313,7 +7378,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -7323,7 +7388,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -7333,7 +7398,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -7343,7 +7408,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -7353,7 +7418,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -7363,7 +7428,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -7373,7 +7438,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -7383,7 +7448,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -7393,7 +7458,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -7403,7 +7468,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -7413,7 +7478,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -7423,7 +7488,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -7433,7 +7498,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -7443,7 +7508,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -7453,7 +7518,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -7463,7 +7528,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -7473,7 +7538,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -7483,7 +7548,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -7493,7 +7558,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -7503,7 +7568,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -7513,7 +7578,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -7523,7 +7588,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -7533,7 +7598,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -7543,7 +7608,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -7553,7 +7618,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -7563,7 +7628,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -7573,7 +7638,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -7583,7 +7648,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -7593,7 +7658,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -7603,7 +7668,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -7613,7 +7678,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -7623,7 +7688,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -7633,7 +7698,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -7643,7 +7708,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -7653,7 +7718,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -7663,7 +7728,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -7673,7 +7738,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -7683,7 +7748,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -7693,7 +7758,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -7703,7 +7768,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -7713,7 +7778,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -7723,7 +7788,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -7733,7 +7798,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -7743,7 +7808,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -7753,7 +7818,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -7763,7 +7828,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -7773,7 +7838,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -7783,7 +7848,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -7793,7 +7858,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -7803,7 +7868,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -7813,7 +7878,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -7823,7 +7888,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -7833,7 +7898,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -7843,7 +7908,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -7853,7 +7918,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -7924,16 +7989,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -7950,7 +8015,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -7967,7 +8032,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -7982,7 +8047,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -7996,7 +8061,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -8006,7 +8071,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -8020,7 +8085,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -8035,12 +8100,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -8053,12 +8118,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -8071,12 +8136,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -8089,12 +8154,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -8107,12 +8172,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -8125,12 +8190,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -8143,12 +8208,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -8161,7 +8226,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -8171,7 +8236,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -8191,7 +8256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -8203,7 +8268,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -8213,7 +8278,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -8223,7 +8288,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -8233,7 +8298,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -8243,7 +8308,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -8253,7 +8318,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8263,7 +8328,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -8273,7 +8338,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -8283,7 +8348,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -8293,7 +8358,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -8303,7 +8368,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -8313,7 +8378,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -8323,7 +8388,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -8333,7 +8398,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -8343,7 +8408,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -8353,7 +8418,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -8363,7 +8428,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -8373,7 +8438,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -8383,7 +8448,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8393,7 +8458,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -8403,7 +8468,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -8413,7 +8478,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -8423,7 +8488,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -8433,7 +8498,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -8443,7 +8508,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -8453,7 +8518,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -8463,7 +8528,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -8473,7 +8538,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -8483,7 +8548,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -8493,7 +8558,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -8503,7 +8568,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -8513,7 +8578,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -8523,7 +8588,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -8533,7 +8598,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -8543,7 +8608,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -8553,7 +8618,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -8563,7 +8628,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -8573,7 +8638,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -8583,7 +8648,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -8593,7 +8658,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -8603,7 +8668,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -8613,7 +8678,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -8623,7 +8688,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -8633,7 +8698,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -8643,7 +8708,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -8653,7 +8718,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -8663,7 +8728,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -8673,7 +8738,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -8683,7 +8748,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -8693,7 +8758,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -8703,7 +8768,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -8713,7 +8778,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -8723,7 +8788,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -8733,7 +8798,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -8743,7 +8808,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -8753,7 +8818,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -8763,7 +8828,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -8773,7 +8838,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -8783,7 +8848,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -8793,7 +8858,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -8803,7 +8868,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -8813,7 +8878,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -8823,7 +8888,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -8833,7 +8898,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -8843,7 +8908,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -8853,7 +8918,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -8863,7 +8928,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -8873,7 +8938,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -8883,7 +8948,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -8893,7 +8958,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -8903,7 +8968,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -8913,7 +8978,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -8923,7 +8988,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -8933,7 +8998,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -8943,7 +9008,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -8953,7 +9018,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -8963,7 +9028,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -8973,7 +9038,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -8983,7 +9048,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -8993,7 +9058,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -9003,7 +9068,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -9013,7 +9078,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -9023,7 +9088,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -9094,16 +9159,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9185,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -9136,7 +9201,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -9151,7 +9216,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -9165,7 +9230,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -9175,7 +9240,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -9189,7 +9254,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -9204,12 +9269,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -9222,12 +9287,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -9240,12 +9305,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -9258,12 +9323,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -9276,12 +9341,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -9294,12 +9359,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -9312,12 +9377,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -9330,7 +9395,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9340,7 +9405,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -9360,7 +9425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -9372,7 +9437,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -9382,7 +9447,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -9392,7 +9457,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -9402,7 +9467,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -9412,7 +9477,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -9422,7 +9487,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -9432,7 +9497,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -9442,7 +9507,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -9452,7 +9517,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -9462,7 +9527,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -9472,7 +9537,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -9482,7 +9547,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -9492,7 +9557,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -9502,7 +9567,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -9512,7 +9577,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -9522,7 +9587,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -9532,7 +9597,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -9542,7 +9607,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -9552,7 +9617,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -9562,7 +9627,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -9572,7 +9637,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -9582,7 +9647,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -9592,7 +9657,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -9602,7 +9667,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -9612,7 +9677,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -9622,7 +9687,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -9632,7 +9697,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -9642,7 +9707,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -9652,7 +9717,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -9662,7 +9727,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -9672,7 +9737,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -9682,7 +9747,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -9692,7 +9757,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -9702,7 +9767,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -9712,7 +9777,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -9722,7 +9787,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -9732,7 +9797,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -9742,7 +9807,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -9752,7 +9817,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -9762,7 +9827,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -9772,7 +9837,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -9782,7 +9847,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -9792,7 +9857,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -9802,7 +9867,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -9812,7 +9877,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -9822,7 +9887,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -9832,7 +9897,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -9842,7 +9907,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -9852,7 +9917,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -9862,7 +9927,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -9872,7 +9937,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -9882,7 +9947,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -9892,7 +9957,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -9902,7 +9967,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -9912,7 +9977,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -9922,7 +9987,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -9932,7 +9997,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -9942,7 +10007,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -9952,7 +10017,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -9962,7 +10027,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -9972,7 +10037,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -9982,7 +10047,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -9992,7 +10057,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -10002,7 +10067,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -10012,7 +10077,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -10022,7 +10087,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -10032,7 +10097,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -10042,7 +10107,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -10052,7 +10117,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -10062,7 +10127,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -10072,7 +10137,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -10082,7 +10147,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -10092,7 +10157,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -10102,7 +10167,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -10112,7 +10177,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -10122,7 +10187,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -10132,7 +10197,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -10142,7 +10207,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -10152,7 +10217,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -10162,7 +10227,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -10172,7 +10237,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -10182,7 +10247,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -10192,7 +10257,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -10263,16 +10328,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -10289,7 +10354,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -10306,7 +10371,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -10321,7 +10386,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -10335,7 +10400,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -10345,7 +10410,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -10359,7 +10424,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -10374,12 +10439,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -10392,12 +10457,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -10410,12 +10475,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -10428,12 +10493,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -10446,12 +10511,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -10464,12 +10529,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -10482,12 +10547,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -10500,7 +10565,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -10510,7 +10575,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -10530,7 +10595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -10542,7 +10607,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -10552,7 +10617,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -10562,7 +10627,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -10572,7 +10637,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10582,7 +10647,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -10592,7 +10657,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -10602,7 +10667,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -10612,7 +10677,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -10622,7 +10687,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -10632,7 +10697,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -10642,7 +10707,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -10652,7 +10717,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10662,7 +10727,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -10672,7 +10737,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -10682,7 +10747,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -10692,7 +10757,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -10702,7 +10767,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -10712,7 +10777,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -10722,7 +10787,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -10732,7 +10797,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -10742,7 +10807,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -10752,7 +10817,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -10762,7 +10827,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -10772,7 +10837,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -10782,7 +10847,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -10792,7 +10857,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -10802,7 +10867,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -10812,7 +10877,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -10822,7 +10887,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -10832,7 +10897,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -10842,7 +10907,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -10852,7 +10917,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -10862,7 +10927,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -10872,7 +10937,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -10882,7 +10947,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -10892,7 +10957,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -10902,7 +10967,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -10912,7 +10977,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -10922,7 +10987,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -10932,7 +10997,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -10942,7 +11007,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -10952,7 +11017,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -10962,7 +11027,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -10972,7 +11037,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -10982,7 +11047,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -10992,7 +11057,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -11002,7 +11067,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -11012,7 +11077,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -11022,7 +11087,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -11032,7 +11097,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -11042,7 +11107,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -11052,7 +11117,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -11062,7 +11127,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -11072,7 +11137,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -11082,7 +11147,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -11092,7 +11157,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -11102,7 +11167,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -11112,7 +11177,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -11122,7 +11187,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -11132,7 +11197,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -11142,7 +11207,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -11152,7 +11217,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -11162,7 +11227,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -11172,7 +11237,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -11182,7 +11247,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -11192,7 +11257,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -11202,7 +11267,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -11212,7 +11277,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -11222,7 +11287,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -11232,7 +11297,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -11242,7 +11307,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -11252,7 +11317,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -11262,7 +11327,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -11272,7 +11337,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -11282,7 +11347,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -11292,7 +11357,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -11302,7 +11367,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -11312,7 +11377,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -11322,7 +11387,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -11332,7 +11397,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -11342,7 +11407,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -11352,7 +11417,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -11362,7 +11427,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -11433,16 +11498,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -11461,7 +11526,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
@@ -11478,7 +11543,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>134</v>
       </c>
@@ -11493,7 +11558,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>135</v>
       </c>
@@ -11507,7 +11572,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -11517,7 +11582,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -11531,7 +11596,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>138</v>
       </c>
@@ -11546,12 +11611,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -11564,12 +11629,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -11582,12 +11647,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -11600,12 +11665,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -11618,12 +11683,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -11636,12 +11701,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -11654,12 +11719,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -11672,7 +11737,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -11684,7 +11749,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>146</v>
       </c>
@@ -11704,7 +11769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -11716,7 +11781,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -11726,7 +11791,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -11736,7 +11801,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -11746,7 +11811,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -11756,7 +11821,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -11766,7 +11831,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -11776,7 +11841,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -11786,7 +11851,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -11796,7 +11861,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -11806,7 +11871,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -11816,7 +11881,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -11826,7 +11891,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -11836,7 +11901,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -11846,7 +11911,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -11856,7 +11921,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -11866,7 +11931,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -11876,7 +11941,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -11886,7 +11951,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -11896,7 +11961,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -11906,7 +11971,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -11916,7 +11981,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -11926,7 +11991,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -11936,7 +12001,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -11946,7 +12011,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -11956,7 +12021,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -11966,7 +12031,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -11976,7 +12041,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -11986,7 +12051,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -11996,7 +12061,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -12006,7 +12071,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -12016,7 +12081,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -12026,7 +12091,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -12036,7 +12101,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -12046,7 +12111,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -12056,7 +12121,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -12066,7 +12131,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -12076,7 +12141,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -12086,7 +12151,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -12096,7 +12161,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -12106,7 +12171,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -12116,7 +12181,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -12126,7 +12191,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -12136,7 +12201,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -12146,7 +12211,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -12156,7 +12221,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -12166,7 +12231,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -12176,7 +12241,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -12186,7 +12251,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -12196,7 +12261,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -12206,7 +12271,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -12216,7 +12281,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -12226,7 +12291,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -12236,7 +12301,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -12246,7 +12311,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -12256,7 +12321,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -12266,7 +12331,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -12276,7 +12341,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -12286,7 +12351,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -12296,7 +12361,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -12306,7 +12371,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -12316,7 +12381,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -12326,7 +12391,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -12336,7 +12401,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -12346,7 +12411,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -12356,7 +12421,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -12366,7 +12431,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -12376,7 +12441,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -12386,7 +12451,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -12396,7 +12461,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -12406,7 +12471,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -12416,7 +12481,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -12426,7 +12491,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -12436,7 +12501,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -12446,7 +12511,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -12456,7 +12521,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -12466,7 +12531,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -12476,7 +12541,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -12486,7 +12551,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -12496,7 +12561,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -12506,7 +12571,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -12516,7 +12581,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -12526,7 +12591,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -12536,7 +12601,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>84</v>
       </c>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA081380-77A5-9A47-BD6E-6500A131AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4311E97E-A186-5F41-BEEA-BA60E66286F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
   <si>
     <t>Product Name:</t>
   </si>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>Grumpy Bear</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Add Menu Bar</t>
+  </si>
+  <si>
+    <t>Add WIN to Github</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Set up for data</t>
+  </si>
+  <si>
+    <t>Instance Store instead of Nim Game</t>
   </si>
 </sst>
 </file>
@@ -792,6 +816,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -806,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,16 +1059,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,28 +1353,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,16 +1667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3705,8 +3729,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3729,14 +3753,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3747,14 +3771,14 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3793,66 +3817,66 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="43">
         <v>1001828709</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -3940,11 +3964,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -3964,7 +3988,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -3988,7 +4012,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4008,7 +4032,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4080,10 +4104,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>19</v>
@@ -4222,7 +4246,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4301,7 +4325,9 @@
       <c r="F29" s="17">
         <v>2</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
@@ -4332,7 +4358,9 @@
       <c r="F30" s="17">
         <v>2</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
@@ -4363,7 +4391,9 @@
       <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
       </c>
@@ -4392,7 +4422,9 @@
       <c r="F32" s="17">
         <v>2</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="H32" s="18" t="s">
         <v>31</v>
       </c>
@@ -4421,7 +4453,9 @@
       <c r="F33" s="17">
         <v>2</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4486,9 @@
       <c r="F34" s="17">
         <v>2</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
       </c>
@@ -4922,7 +4958,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>125</v>
       </c>
@@ -5647,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5751,7 +5787,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5766,7 +5802,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5784,7 +5820,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5802,7 +5838,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5820,7 +5856,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5838,7 +5874,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5856,7 +5892,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5874,7 +5910,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5920,13 +5956,17 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -6815,8 +6855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6921,7 +6961,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6936,7 +6976,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -6954,7 +6994,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -6972,7 +7012,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6994,7 +7034,7 @@
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -7098,44 +7138,68 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4311E97E-A186-5F41-BEEA-BA60E66286F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C1C62-E768-8942-B4D2-C49C2D58BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
   <si>
     <t>Product Name:</t>
   </si>
@@ -1059,16 +1059,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,7 +3730,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3964,11 +3964,11 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 2")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 3")</f>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$106,"Finished in Sprint 4")</f>
@@ -4359,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4423,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>31</v>
@@ -4454,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>31</v>
@@ -4487,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>31</v>
@@ -6855,8 +6855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7206,7 +7206,9 @@
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="39"/>
       <c r="E22" s="37"/>
@@ -7216,7 +7218,9 @@
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="39"/>
       <c r="E23" s="37"/>
@@ -7226,7 +7230,9 @@
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="39"/>
       <c r="E24" s="37"/>
@@ -7236,7 +7242,9 @@
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="39"/>
       <c r="E25" s="37"/>
@@ -7246,7 +7254,9 @@
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="39"/>
       <c r="E26" s="37"/>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C1C62-E768-8942-B4D2-C49C2D58BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB9912-F9BE-954C-BE6F-7ABBEAE0B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -3729,7 +3729,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -6855,7 +6855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB9912-F9BE-954C-BE6F-7ABBEAE0B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D1568-8398-444E-9058-CA39E5D2FE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="170">
   <si>
     <t>Product Name:</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>Instance Store instead of Nim Game</t>
+  </si>
+  <si>
+    <t>Inserted Customer Information</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Inserted Option Information</t>
+  </si>
+  <si>
+    <t>Inserted Computer Information</t>
   </si>
 </sst>
 </file>
@@ -1667,22 +1679,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3729,8 +3741,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6855,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6961,7 +6973,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6976,7 +6988,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -6994,7 +7006,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7012,7 +7024,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7030,7 +7042,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7048,7 +7060,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7070,7 +7082,7 @@
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -7202,7 +7214,7 @@
       </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -7210,11 +7222,15 @@
         <v>53</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -7222,11 +7238,15 @@
         <v>57</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -7234,8 +7254,12 @@
         <v>59</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D1568-8398-444E-9058-CA39E5D2FE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF04D65-971A-3A42-86B3-5D63F4FEDA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="171">
   <si>
     <t>Product Name:</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>Inserted Computer Information</t>
+  </si>
+  <si>
+    <t>List  data on display</t>
   </si>
 </sst>
 </file>
@@ -1679,22 +1682,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -6867,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6973,7 +6976,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6988,7 +6991,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7006,7 +7009,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7024,7 +7027,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7042,7 +7045,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7060,7 +7063,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -7082,7 +7085,7 @@
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -7286,14 +7289,20 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">

--- a/P06/Scrum_Sprint_2.xlsx
+++ b/P06/Scrum_Sprint_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF04D65-971A-3A42-86B3-5D63F4FEDA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025BAC5-DCE9-9749-A078-199BD5B2AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16980" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="172">
   <si>
     <t>Product Name:</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>List  data on display</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1706,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,8 +3747,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6870,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7099,11 +7102,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -7265,7 +7268,7 @@
       </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -7274,10 +7277,12 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -7286,7 +7291,9 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="E26" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
